--- a/local_files/summary_thinking.xlsx
+++ b/local_files/summary_thinking.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="波特五力模型" sheetId="2" r:id="rId1"/>
     <sheet name="SWOT模型" sheetId="3" r:id="rId2"/>
     <sheet name="四张地图" sheetId="4" r:id="rId3"/>
-    <sheet name="目标制定" sheetId="6" r:id="rId4"/>
+    <sheet name="原则" sheetId="6" r:id="rId4"/>
     <sheet name="2023" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>2022年回顾总结&amp;2023年工作重点思考</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>波特五力模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWOT模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挖掘潜在客户需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以客户问题为切入点，深入理解客户使用场景，以及使用过程中的客户痛点和客户真实需求，进而提炼出新的产品需求(能成为新的亮点最好)，并推动其落地，有效改善用户体验。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,18 +380,6 @@
   </si>
   <si>
     <t>团队建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标制定五原则---SMART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMART原则（S=Specific、M=Measurable、A=Attainable、R=Relevant、T=Time-bound）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,6 +489,62 @@
     3. 同行竞争情况
     4. 潜在进入者威胁
     5. 替代品的威胁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掘潜在客户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      SMART
+S=Specific
+M=Measurable
+A=Attainable
+R=Relevant
+T=Time-bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标制定五原则-SMART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出一个好问题，就意味着问题解决了一半。5W2H是美国陆军首创，简单实用，常用于分析决策或执行性活动的思考框架：
+5W2H分析法：
+(1) What 条件是什么？做哪些工作？目的是什么？重点是什么？方法是什么？规范是什么？与什么有关系？
+(2) How 怎样做省力？怎样提高效率？怎样实施？怎样改进？怎样避免失败？
+(3) why  为什么采用这个技术参数？为什么要做成这个形状？为什么要经过这么多环节？为什么非做不可？有没有替代方案？
+(4) when 何时要完成？何时安装？何时销售？何时完成最为时宜？需要几天才算合理？
+(5) where 何处生产最经济？什么地方销售？安装在什么地方最合适？何地有资源？
+(6) who  谁来办最方便？谁会生产？谁可以办？谁是顾客？谁被忽略了？谁是决策人？谁会受益？
+(7) How much 做到什么程度？功能指标达到多少？数量多少？质量如何？效率多高？投入产出比多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      七问分析法-5W2H
+what 是什么
+why 为什么
+who 谁
+when 何时
+where 何处
+how 怎么样
+how much/many 多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考分析原则-5W2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWOT模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理--四张地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,9 +726,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,66 +780,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,7 +1712,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1691,149 +1729,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="7" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="C15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1852,7 +1890,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1866,55 +1904,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="5.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,42 +1960,42 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="154" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="154" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="31"/>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,166 +2020,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="121.36328125" customWidth="1"/>
+    <col min="2" max="2" width="136.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="67.90625" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="114.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+    <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="127" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2152,16 +2203,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="7"/>
     <col min="2" max="2" width="15.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7" style="7" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" style="7" customWidth="1"/>
     <col min="5" max="5" width="111.1796875" style="7" customWidth="1"/>
     <col min="6" max="6" width="19" style="7" customWidth="1"/>
@@ -2169,18 +2220,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -2194,316 +2245,321 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="38"/>
+      <c r="A2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32" t="s">
-        <v>94</v>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="8" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="E26" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="11" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D23:E23"/>
@@ -2512,11 +2568,6 @@
     <mergeCell ref="B10:B22"/>
     <mergeCell ref="C11:C22"/>
     <mergeCell ref="C24:C29"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/local_files/summary_thinking.xlsx
+++ b/local_files/summary_thinking.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="波特五力模型" sheetId="2" r:id="rId1"/>
     <sheet name="SWOT模型" sheetId="3" r:id="rId2"/>
-    <sheet name="四张地图" sheetId="4" r:id="rId3"/>
-    <sheet name="原则" sheetId="6" r:id="rId4"/>
-    <sheet name="2023" sheetId="1" r:id="rId5"/>
+    <sheet name="原则&amp;方法" sheetId="6" r:id="rId3"/>
+    <sheet name="产品规划" sheetId="8" r:id="rId4"/>
+    <sheet name="质量策划" sheetId="11" r:id="rId5"/>
+    <sheet name="四张地图" sheetId="4" r:id="rId6"/>
+    <sheet name="2023" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="228">
   <si>
     <t>2022年回顾总结&amp;2023年工作重点思考</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +75,6 @@
   </si>
   <si>
     <t>企业经营管理检核表（检查营销、财务、制造和组织能力）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品特性、技术、专利、质量、可靠性、适用性、风格、形象、用户体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>知识积累情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应链</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,51 +178,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案串讲与反串讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试自动化率(自动化测试&amp;结果分析)----目标：一键式自动化测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复盘改进情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能亮点&amp;竞争力，TR4后无功能遗漏，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性能提升&amp;竞争力，TR4A后无性能遗漏，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力规划、项目计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求串讲与反串讲；需求变更率控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>氛围自诊断：从业务发展、个人发展、组织运作、绩效导向&amp;评价&amp;激励、内部氛围(团队和主管认可度)等维度诊断员工和专家状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据诊断情况进行改进：从小组番号，基于组内目标、期望的团队气质和绩效导向，基于绩效导向及自诊断发现的问题的氛围建设目标，关键举措，责任人、完成时间等维度进行提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,15 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基于业务，内部梳理并根据情况建立设计团队、特战队、全功能团队(SE/开发/测试,可独立作战)等；
-加强部门间配合，提高周边满意度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案评审、代码检视、交付要求、知识积累、外出实测、研发接单要求(测试和售后提单规范)、问题单处理规范等机制的建立和运作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>维护业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,10 +297,6 @@
   </si>
   <si>
     <t>通过问题点，反向思考，重构优化，设计并落地相关改进方案，提高产品的用户体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求收集、确认澄清；竞品分析；方案讨论与选择；器件选型；风险识别&amp;清除；Demo开发；专利等壁垒设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,18 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>培训(内部培训、邀请外部培训)、讲解分享、实测技能、员工针对性培养等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升单兵作战能力，激活组织，团队作战，高效、高质量达成业务目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举措</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>针对过程中的痛点、风险或重大事件进行复盘，并总结输出后续类似情况的更好应对策略，不断持续总结和改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码行,缺陷率,圈复杂度、pclint,coverity,fortify，memcheck内存泄漏检测等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点分解；UT、ST测试的代码行和函数覆盖率；功能和性能测试；场景覆盖情况等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过程(策划、实施、监控、调整、攻关、结果确认)、按期、高质量(交付后bug情况)、周边配合满意度、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环境分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,10 +381,6 @@
   </si>
   <si>
     <t>发展规律和趋势分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同行竞争情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,15 +410,6 @@
   </si>
   <si>
     <t>挖掘潜在客户需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      SMART
-S=Specific
-M=Measurable
-A=Attainable
-R=Relevant
-T=Time-bound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,7 +433,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      七问分析法-5W2H
+    <t>思考分析原则-5W2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWOT模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队管理--四张地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小改进、大收益，通过持续不断的改进，集量变到质变，提高产品用户体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识积累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力规划、项目开发计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升单兵作战能力，激活组织，团队作战，高效、高质量达成业务目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案评审、代码检视、交付要求、知识积累、研发接单要求(测试和售后提单规范)、问题单处理规范等机制的建立和运作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训(内部培训、邀请外部培训)、讲解分享、员工针对性培养等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氛围自诊断：从业务发展、个人发展、组织运作、绩效导向&amp;评价&amp;激励、内部氛围(团队和主管认可度)等维度诊断员工和专家状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工关怀、定期沟通辅导、定期团建；组内技术&amp;业务讨论分享；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于业务，内部梳理并根据情况建立设计团队、特战队、全功能团队(SE/开发/测试,可独立作战)等；
+加强部门间配合，提高周边满意度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预研业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法分析&amp;验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利识别&amp;申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利等壁垒设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制需求变更率，控制方案变更，规范过程(策划、实施、监控、调整、攻关、结果确认)，按期、高质量(交付后bug，缺陷密度等)，周边配合满意度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件功能特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据服务特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量
+(各平台销量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估价格(yy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估销量(xx/年)
+（各平台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据增值服务：如案例查询、在线智能化处理、商品精准推荐、服务建议等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品特性规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品特性、技术、专利、质量、可靠性、适用性、风格、形象、用户体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行竞争情况
+(竞争力分析)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七问分析法-5W2H
 what 是什么
 why 为什么
 who 谁
@@ -536,15 +660,381 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>思考分析原则-5W2H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWOT模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队管理--四张地图</t>
+    <t>SMART
+S=Specific
+M=Measurable
+A=Attainable
+R=Relevant
+T=Time-bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走访客户，真实调研的客户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自市场反馈的客户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对竞品的特性需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据对行业发展的深刻理解，挖掘出的客户潜在需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发、维护日常发现的产品缺陷或用户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一句话：挖掘客户的真实需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险&amp;措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算(人力等预算)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据预估价格和预估销量，结合成本，估算销售额和利润，结合下面的预算，计算出投入产出比，然后综合判断是否进行投入。一句话：做这件事的价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 sigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于流程改善的工具与程序，是商业管理的战略之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的相关工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续改进，稳定和预测性地提高流程结果，对于商业成功非常重要。
+生产和商业流程可以透过测量、分析、提高和控制进行改善
+获得持续的品质提升需要整个组织、特别是领导者的参与
+六西格玛的最终目标是，提升所有的流程，然后提高质量水平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMAIC方法：用于改善现有的商业流程，五个步骤如下：
+D：定义问题：客户需求和项目目标等等。
+M：收集数据：测量当前流程的关键方面，收集相关资料。
+A：分析数据：寻求和检验原因和效果之间的关系，确定是什么关系，然后确保考虑到所有因素。通过调查，发现问题的根因。
+I：提升优化当前流程：根据分析数据，利用标准工作创建一个新的、未来的理想流程，建立规范运作流程能力。
+C：控制改变未来流程：确保任何偏离目标的误差都可以改正。执行控制系统和流程持续改善等。
+DMADV(也叫DFSS)方法：用于建立新的产品或设计流程，五个步骤如下：
+D：制定战略：                  定义设计符合客户需要和其他目标的战略
+M：找准关键点：                摸准确定CTQ（对质量至关重要的参数），产品性能、生产流程性能和风险等
+A：设计最佳方案：              分析去考虑是否有替代方法，创建高性能的设计、评估设计技能，选择最佳的设计方案
+D：模拟、优化、完善、评估方案：设计细节、优化设计，对设计审核进行评估，这个过程可能需要模拟操作(Demo)
+V：检查、实施、提交：          检查设计，规范模型，实施生产流程，并且提交给流程所有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六西格玛,结合戴明环，有两种方法：DMAIC方法和DMADV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDCA循环：
+Plan(计划),
+Do(实施)
+Check(检查)
+Act(行动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工个人进行的自下而上的改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、描述清楚当前面临的问题或困境、或者机遇
+2、简述解决当前困境或抓住机遇的解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼骨图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量管理方法-戴明环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简要说明主题事情的重要性和紧迫性
+基于调查后的事实描述
+数据说话
+主题大小合适
+目标遵循SMART化
+力所能及
+标题描述：手段+目的，格式：怎样(提高、降低、减少)+要解决的对象(xx产品，过程的名称)+要解决的问题(质量、效率、成本等）
+          如：降低xx缺陷，提升xx存取性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想起源-戴明环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴明环思想和方法的落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工自发组织的自下而上的改进，3-5人（圈长、辅导员、圈员）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题解决型和课题达成型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照PDCA方式进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题评审--&gt;对策评审--&gt;成果评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审活动
+(监控&amp;确认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定质量目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发过程特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分内部客户和外部客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 客户表述的需求（期望型），真正需求（基本型），感觉的需求（期望型），文化需求（基本型）
+2. 基本型需求，期望型需求，兴奋型需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发满足客户需求的过程控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：需求           -&gt;过程：开发产品特征  -&gt;输出：产品(项目)特征和目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发项目特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量出自计划而非检查；
+质量策划是质量管理的一部分，致力于制定质量目标并规定必要的运行过程(制定确保某产品使客户满意所需的步骤)和相关资源，以便按时实现质量目标
+策划步骤：1. 设定目标 2.识别客户 3.识别客户需求 4.开发项目特征 5. 开发过程特征  6. 开发过程控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：产品特征和目标 -&gt;过程：开发过程特征  -&gt;输出：过程特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：过程特征       -&gt;过程：开发过程控制  -&gt;输出：实现产品和过程质量目标的方法
+产品形成过程的有效控制，是保持合格产品再现性的关键因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统性的决策技术-QFD 
+质量功能展开
+Quality Function Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种产品开发和质量保证的思想和方法论，主要用于转化客户需求为产品或服务的技术规格等。
+在设计阶段：可保证将顾客的要求准确无误地转换成产品定义（具有的功能、实现功能的机构和零件的形状、尺寸、公差等）；
+在生产准备阶段：可以保证将反映顾客要求的产品定义准确无误地转换为产品制造工艺过程；
+在生产加工阶段：可以保证制造出的产品完全满足顾客的需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定客户需求-QFD&amp;卡诺模型&amp;需求分析展开表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制需求和产品特性之间的关系矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析展开表-精确客户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡诺模型-需求分析技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 战略质量目标(属于高层指定的经营计划，如提高市占率等）   
+2. 战术质量目标（缺陷率等实际产品指标）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量管理遵循的科学方法，分为四个阶段，八个步骤。PDCA循环就是按照PDCA这个顺序不停循环进行下去的科学方法.
+一. P计划：收集资料，确定行动计划。
+    1、分析现状,找出问题（头脑风暴、调查表）
+       1.1 确认问题  1.2 收集和组织数据 1.3 能力评估 1.4 设定目标(SMART原则，1-3个为宜)和测量方法(可操作性)
+       注：问题发生的时间、地点、问题种类、特性及其他要素、严重程度、确认问题基线(设定目标的参考)等
+    2、分析问题产生的原因 (鱼骨图）:分析到可以直接采取对策的程度为止
+    3、根因分析：二八原则，找出关键矛盾
+    4、制定对策（5w2h的方式，每一条根因指定1到多条对策，选择最优）
+       4.1 寻找可能的解决方法  4.2 测试并选择最优解决方法  4.3 提出行动计划和相应的资源
+二. D实施：实施行动计划
+    5、执行计划
+三. C检查：即效果确认，检查实施的结果，看有没有达到预期，哪些做得好，哪些做得差，做得好的继续保持，做得差就改进
+    6、检查、评估结果：目标达成情况(量化、衡量对比)；前后现状变化和用户声音对比；效益成果展示(经济效益和其他效益)。
+四. A行动：总结、标准化，推广。成功经验继续沿用，失败教训总结改进，并且实施改进措施。没有完成的，作为下一个P里的输入进入下一个PDCA循环。
+    7、总结（专业技术、管理技术、人员素质等方面的总结）、巩固成绩，标准化，并推广成果
+    8、继续使用PDCA循环改进其他问题(如：原次要问题上升为主要问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者自上而下的专项改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工个人进行的自下而上的改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者驱动的改进，即根因分析与改进：问题-根因-改进落实-固化。常用方法：5w2h,泳道图，5why,EC分析，SAMRT原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定开发计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求收集、确认、澄清；需求评审；需求串讲与反串讲；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案设计、讨论与选择；风险识别&amp;清除；方案评审；方案串讲与反串讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出：
+质量&amp;成本目标，关键领域任务目标，TOP问题风险&amp;应对措施，
+关键质量措施活动计划(需求确认/分解/澄清,需求/方案/转测/试产/量产评审,需求/方案串讲与反串讲,开发&amp;测试相关活动等)
+关键活动阶段(TR点)及验收标准(需求/方案变更次数及变更率控制、缺陷密度及缺陷收敛，回归不通过率，TR点要求等)
+阶段性审视（版本例会/CCB等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：
+历史：质量要求(客户要求,部门重点工作&amp;质量目标),历史(版本经验，优秀实践、关键问题回溯,维护总结)、规范(设计)
+当前：目标市场和计划、版本特点、设计难点、版本风险&amp;周边依赖，成本竞争力分析、团队成熟度及人员能力分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划流程-实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审会议：
+交付目标对齐：质量目标、成本目标、开发计划
+质量活动及过程策划：关键质量活动、质量要求、执行流程
+关键风险识别&amp;评审：技术风险、进度&amp;人力风险、周边配套&amp;依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,8 +1104,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -684,11 +1180,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,9 +1242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -738,9 +1257,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -750,6 +1275,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,6 +1327,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,32 +1351,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,6 +1999,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4000500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>668385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5531020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="9228185"/>
+          <a:ext cx="1530520" cy="665187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3873500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5404020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="6789785"/>
+          <a:ext cx="1530520" cy="633365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -1712,7 +2375,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1729,156 +2392,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>104</v>
+      <c r="A3" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>103</v>
+      <c r="A6" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="38"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="7" t="s">
-        <v>107</v>
+      <c r="A9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="C14" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+    <row r="17" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="44"/>
+    </row>
+    <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+    </row>
+    <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A6:A22"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,7 +2561,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1904,22 +2575,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1930,29 +2601,29 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="5.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,42 +2631,42 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>29</v>
-      </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="154" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="154" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="48"/>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,10 +2691,709 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="112" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="127" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="252" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="182" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B18:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="E17:E21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="112" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2033,76 +3403,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="A1" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2110,20 +3480,20 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2136,76 +3506,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="114.6328125" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="41"/>
-    </row>
-    <row r="2" spans="1:10" ht="127" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2214,24 +3521,24 @@
     <col min="2" max="2" width="15.7265625" style="7" customWidth="1"/>
     <col min="3" max="3" width="7" style="7" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="111.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="123.26953125" style="7" customWidth="1"/>
     <col min="6" max="6" width="19" style="7" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -2245,329 +3552,463 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="59"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="58"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="59"/>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="33"/>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="14"/>
+      <c r="E40" s="31"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B2:B9"/>
+  <mergeCells count="18">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B9:B21"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="C11:C22"/>
-    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B2:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
